--- a/artfynd/A 58003-2025 artfynd.xlsx
+++ b/artfynd/A 58003-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY187"/>
+  <dimension ref="A1:AY189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20805,6 +20805,210 @@
       </c>
       <c r="AY187" t="inlineStr"/>
     </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>131048623</v>
+      </c>
+      <c r="B188" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Blyberg-Våmhus-Fryksås, Dlr</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>462148</v>
+      </c>
+      <c r="R188" t="n">
+        <v>6780630</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5</v>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>Våmhus</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="AD188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT188" t="inlineStr"/>
+      <c r="AW188" t="inlineStr">
+        <is>
+          <t>Petter Westberg</t>
+        </is>
+      </c>
+      <c r="AX188" t="inlineStr">
+        <is>
+          <t>Petter Westberg</t>
+        </is>
+      </c>
+      <c r="AY188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>131048622</v>
+      </c>
+      <c r="B189" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>Blyberg-Våmhus-Fryksås, Dlr</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>462139</v>
+      </c>
+      <c r="R189" t="n">
+        <v>6780581</v>
+      </c>
+      <c r="S189" t="n">
+        <v>5</v>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>Våmhus</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="AD189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG189" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT189" t="inlineStr"/>
+      <c r="AW189" t="inlineStr">
+        <is>
+          <t>Petter Westberg</t>
+        </is>
+      </c>
+      <c r="AX189" t="inlineStr">
+        <is>
+          <t>Petter Westberg</t>
+        </is>
+      </c>
+      <c r="AY189" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
